--- a/Excel/Assignment/Find-Duplicates-and-Show-the-Count.xlsx
+++ b/Excel/Assignment/Find-Duplicates-and-Show-the-Count.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="http://localhost:9843/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E080B9B-AC84-4D06-A0AA-7ED582E9506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831ED9A-7787-4819-BEC8-2CDE8A713B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D324885B-568D-4DE8-9B20-F3359D7CD503}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,10 +499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5BA181-2463-4C7B-8C49-F86BA878C90F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -523,27 +523,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6">
-        <f>COUNTIF(E2:E4,E2)</f>
+        <f>COUNTIF($A$2:$A$19,"FDR*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2">
-        <f>SEARCH("-",A2)</f>
-        <v>4</v>
-      </c>
-      <c r="E2" t="str">
-        <f>LEFT(A2,D2-1)</f>
-        <v>FDR</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -551,16 +543,8 @@
       <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">SEARCH("-",A3)</f>
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E19" si="1">LEFT(A3,D3-1)</f>
-        <v>FDR</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -568,36 +552,20 @@
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>FDR</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <f>COUNTIF(E5:E6,E5)</f>
+        <f>COUNTIF($A$5:$A$6,"Server Room*")</f>
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>Server Room</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -605,36 +573,20 @@
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>Server Room</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <f>COUNTIF(E7:E8,E7)</f>
+        <f>COUNTIF($A$2:$A$19,"Server Room-3*")</f>
         <v>2</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <f>SEARCH("(",A7)</f>
-        <v>14</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>Server Room-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -642,36 +594,20 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
-        <f>SEARCH("(",A8)</f>
-        <v>14</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>Server Room-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <f>COUNTIF(E9:E10,E9)</f>
+        <f>COUNTIF($A$2:$A$19,"MUX Room*")</f>
         <v>2</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>MUX Room</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -679,36 +615,20 @@
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>MUX Room</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <f>COUNTIF(E11:E12,E11)</f>
+        <f>COUNTIF($A$2:$A$19,"UPS Room*")</f>
         <v>2</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11">
-        <f>SEARCH("m",A11)</f>
-        <v>8</v>
-      </c>
-      <c r="E11" t="str">
-        <f>LEFT(A11,D11+1)</f>
-        <v xml:space="preserve">UPS Room </v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -716,36 +636,20 @@
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
-        <f>SEARCH("m",A12)</f>
-        <v>8</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ref="E12:E14" si="2">LEFT(A12,D12+1)</f>
-        <v xml:space="preserve">UPS Room </v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6">
-        <f>COUNTIF(E13:E14,E13)</f>
+        <f>COUNTIF($A$2:$A$19,"Battery Bank*")</f>
         <v>2</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13">
-        <f>SEARCH("k",A13)</f>
-        <v>12</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Battery Bank </v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -753,48 +657,32 @@
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
-        <f>SEARCH("k",A14)</f>
-        <v>12</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Battery Bank </v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <f>COUNTIF(A15,A15)</f>
+        <f>COUNTIF($A$2:$A$19,"BMS*")</f>
         <v>1</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <f>COUNTIF(E16:E17,E16)</f>
+        <f>COUNTIF($A$2:$A$19,"Electrical Room*")</f>
         <v>2</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>Electrical Room</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -802,50 +690,26 @@
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>Electrical Room</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <f>COUNTIF(E18:E19,E18)</f>
+        <f>COUNTIF($A$2:$A$19,"Panel Room*")</f>
         <v>2</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>Panel Room</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>Panel Room</v>
       </c>
     </row>
   </sheetData>
